--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25811"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_CAD738C92D72F356C1C8EED70898DE479700A1AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF002BE-2FEE-4585-BE7E-B5F128ED1FDB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BankDataScenarioPersonal" sheetId="1" r:id="rId1"/>
     <sheet name="BankDataScenarioCompany" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="164">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -315,58 +314,27 @@
     <t>ScnC-001</t>
   </si>
   <si>
-    <t>Input 1 Customer Company With Input Data Normal Flow</t>
-  </si>
-  <si>
-    <t>Input 1 Shareholder Public (share 30%)
-Input 1 Shareholder Personal (Share 70%)
-Input 1 Shareholder Company (Share 20%)</t>
-  </si>
-  <si>
     <t>2.TabManagementshareholderData</t>
   </si>
   <si>
     <t>ScnC-002</t>
   </si>
   <si>
-    <t>Input 1 Customer Company With Input Data (TaxId No lebih dari 15 digit)</t>
-  </si>
-  <si>
     <t>Muncul Error Validasi</t>
   </si>
   <si>
     <t>ScnC-003</t>
   </si>
   <si>
-    <t>Input 1 Shareholder Company (share 50%)
-Input 1 Shareholder Personal (Share 50%)</t>
-  </si>
-  <si>
-    <t>Input 1 Guarantor Company (Zipcode Invalid)</t>
-  </si>
-  <si>
     <t>3b.TabGuarantorDataCompany</t>
   </si>
   <si>
     <t>ScnC-004</t>
   </si>
   <si>
-    <t>Input 1 Customer Company with LookUp (Customer Name Typo)</t>
-  </si>
-  <si>
     <t>ScnC-005</t>
   </si>
   <si>
-    <t>Input 1 Customer With Lookup Normal Flow</t>
-  </si>
-  <si>
-    <t>Input 1 Shareholder Company (Share 70%)
-Input 1 Shareholder Public (Share 30%)</t>
-  </si>
-  <si>
-    <t>Input 1 Guarantor Personal (ID Type E-KTP + ID No 20 Digit)</t>
-  </si>
-  <si>
     <t>3a.TabGuarantorDataPersonal</t>
   </si>
   <si>
@@ -398,16 +366,185 @@
   </si>
   <si>
     <t>ScnC-015</t>
+  </si>
+  <si>
+    <t>Cust Company With Input Data Normal Flow</t>
+  </si>
+  <si>
+    <t>1 Shareholder Public with input data (share 30%)</t>
+  </si>
+  <si>
+    <t>1 Shareholder Personal with input data (Share 70%)</t>
+  </si>
+  <si>
+    <t>1 Shareholder Company with input data (Share 20%)</t>
+  </si>
+  <si>
+    <t>Cust Company With Input Data (TaxId No lebih dari 15 digit)</t>
+  </si>
+  <si>
+    <t>CustCompany With Input Data Normal Flow</t>
+  </si>
+  <si>
+    <t>1 Shareholder Company with input data (share 50%)</t>
+  </si>
+  <si>
+    <t>1 Shareholder Personal with input data (Share 50%)</t>
+  </si>
+  <si>
+    <t>1 Guarantor Company with input data (Zipcode Invalid)</t>
+  </si>
+  <si>
+    <t>Cust Company with LookUp (Customer Name Typo)</t>
+  </si>
+  <si>
+    <t>Cust Company With Lookup Normal Flow</t>
+  </si>
+  <si>
+    <t>1 Shareholder Company with input data (Share 70%)</t>
+  </si>
+  <si>
+    <t>1 Shareholder Public with input data (Share 30%)</t>
+  </si>
+  <si>
+    <t>1 Guarantor Personal with input data  (ID Type E-KTP + ID No 20 Digit)</t>
+  </si>
+  <si>
+    <t>Cust Company With LookUp Normal Flow</t>
+  </si>
+  <si>
+    <t>1 Shareholder Personal with input data (Share 80%)</t>
+  </si>
+  <si>
+    <t>1 Shareholder Public with input data (Share 20%)</t>
+  </si>
+  <si>
+    <t>1 Guarantor Company with input data (Tax Id no kosong)</t>
+  </si>
+  <si>
+    <t>Mandatory Tidak Lengkap</t>
+  </si>
+  <si>
+    <t>1 Shareholder Company with LookUp (Share 50%)</t>
+  </si>
+  <si>
+    <t>1 Shareholder Personal with Input data (Share 50%)</t>
+  </si>
+  <si>
+    <t>1 Guarantor Personal with Lookup</t>
+  </si>
+  <si>
+    <t>1 Guarantor Company with Input Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCCESS </t>
+  </si>
+  <si>
+    <t>SUCCES NAP 1</t>
+  </si>
+  <si>
+    <t>Cust Company with Lookup Normal Flow</t>
+  </si>
+  <si>
+    <t>1 Shareholder Personal with LookUp (Share 50%)</t>
+  </si>
+  <si>
+    <t>1 Guarantor Personal with Lookup (Id no 2132920184028000 - FT SURYA)</t>
+  </si>
+  <si>
+    <t>1 Guarantor Personal with Input data (id no 2132920184028000)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Error Alert Id no sama</t>
+  </si>
+  <si>
+    <t>EDIT NAP ScnC-007</t>
+  </si>
+  <si>
+    <t>no referantor</t>
+  </si>
+  <si>
+    <t>Installment type Arrear</t>
+  </si>
+  <si>
+    <t>Tenor 12</t>
+  </si>
+  <si>
+    <t>Regular Fixed</t>
+  </si>
+  <si>
+    <t>Copy address from legal</t>
+  </si>
+  <si>
+    <t>Asset Condition Used</t>
+  </si>
+  <si>
+    <t>Chasis Number kosong</t>
+  </si>
+  <si>
+    <t>Duplicate Referantor</t>
+  </si>
+  <si>
+    <t>Error Alert Duplicate Referantor</t>
+  </si>
+  <si>
+    <t>EDIT NAP ScnC-009</t>
+  </si>
+  <si>
+    <t>Asset data Normal flow (1 Accessories)</t>
+  </si>
+  <si>
+    <t>Insurance Customer (Inco Name Kosong)</t>
+  </si>
+  <si>
+    <t>Error Mandatory tidak lengkap</t>
+  </si>
+  <si>
+    <t>EDIT NAP ScnC-0011</t>
+  </si>
+  <si>
+    <t>Insurance Multifinance Partial Tenor  (Insurance Length &gt; Tenor)</t>
+  </si>
+  <si>
+    <t>Validasi Field Invalid</t>
+  </si>
+  <si>
+    <t>Insurance Multifinance Over Tenor  (Insurance Length &lt; Tenor)</t>
+  </si>
+  <si>
+    <t>Accessories name dikosongkan</t>
+  </si>
+  <si>
+    <t>Error Lookup</t>
+  </si>
+  <si>
+    <t>7a.Accessories</t>
+  </si>
+  <si>
+    <t>Asset Price &lt; DP Amount</t>
+  </si>
+  <si>
+    <t>Error Alert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,7 +558,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -481,11 +618,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,6 +912,156 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,14 +1343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="1" bestFit="1" customWidth="1"/>
@@ -812,7 +1371,7 @@
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +1454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="45">
+    <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -978,7 +1537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="60">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1061,7 +1620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="213">
+    <row r="4" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1144,7 +1703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="45">
+    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1227,7 +1786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="45.75">
+    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1310,7 +1869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="45.75">
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1393,7 +1952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="183">
+    <row r="8" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1472,7 +2031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="60.75">
+    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -1549,7 +2108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="45.75">
+    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1626,7 +2185,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="137.25">
+    <row r="11" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1701,7 +2260,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="137.25">
+    <row r="12" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1776,7 +2335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="76.5">
+    <row r="13" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1849,7 +2408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="106.5">
+    <row r="14" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1922,7 +2481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="121.5">
+    <row r="15" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -1993,7 +2552,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="121.5">
+    <row r="16" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
@@ -2081,513 +2640,1458 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView topLeftCell="S3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3"/>
     <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="34" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2"/>
+    <col min="4" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="24" width="17" style="3"/>
     <col min="25" max="27" width="17" style="1"/>
     <col min="28" max="16384" width="17" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="90">
-      <c r="A2" s="1" t="s">
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+    </row>
+    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="AA2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+    </row>
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+    </row>
+    <row r="5" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="Y5" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="45">
-      <c r="A3" s="1" t="s">
+      <c r="Z5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+    </row>
+    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+    </row>
+    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="Y8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="60">
-      <c r="A4" s="1" t="s">
+      <c r="AA8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B9" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="AA9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+    </row>
+    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="B11" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA4" s="1" t="s">
+      <c r="Y11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+    </row>
+    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+    </row>
+    <row r="13" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="45">
-      <c r="A5" s="1" t="s">
+      <c r="B13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+    </row>
+    <row r="14" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+    </row>
+    <row r="15" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B15" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+    </row>
+    <row r="16" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+    </row>
+    <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+      <c r="B17" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="60">
-      <c r="A6" s="1" t="s">
+      <c r="Y17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+    </row>
+    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+    </row>
+    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+    </row>
+    <row r="21" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B21" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B22" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="23" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B23" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+    </row>
+    <row r="24" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="B24" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="1" t="s">
+      <c r="Y24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1" t="s">
+      <c r="B25" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+    </row>
+    <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="B26" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="197">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="Z17:Z20"/>
+    <mergeCell ref="AA17:AA20"/>
+    <mergeCell ref="AB17:AB20"/>
+    <mergeCell ref="AC17:AC20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="W17:W20"/>
+    <mergeCell ref="X17:X20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25811"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27605ADB-295C-4C35-B79D-5255B2514360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BankDataScenarioPersonal" sheetId="1" r:id="rId1"/>
     <sheet name="BankDataScenarioCompany" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,10 +388,6 @@
 1 Shareholder Personal with LookUp (Share 50%)</t>
   </si>
   <si>
-    <t>1 Guarantor Personal with Lookup (Id no 2132920184028000 - FT SURYA) 
-1 Guarantor Personal with Input data (id no 2132920184028000)</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -471,12 +466,15 @@
   <si>
     <t>Error Alert</t>
   </si>
+  <si>
+    <t>2 Guarantor Personal dengan IdNo yang sama</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,14 +883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="1" bestFit="1" customWidth="1"/>
@@ -913,7 +911,7 @@
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="45">
+    <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="60">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="213">
+    <row r="4" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="45">
+    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1328,7 +1326,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="45.75">
+    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1411,7 +1409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="45.75">
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1494,7 +1492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="213">
+    <row r="8" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1577,7 +1575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="213">
+    <row r="9" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="213">
+    <row r="10" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1743,7 +1741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="213">
+    <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="213">
+    <row r="12" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
@@ -1909,7 +1907,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="213">
+    <row r="13" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="213">
+    <row r="14" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="213">
+    <row r="15" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="213">
+    <row r="16" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -2247,14 +2245,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3"/>
     <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
@@ -2265,7 +2263,7 @@
     <col min="32" max="16384" width="17" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="30.75">
+    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="91.5">
+    <row r="2" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -2426,7 +2424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="45.75">
+    <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2507,7 +2505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60.75">
+    <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>89</v>
       </c>
@@ -2530,7 +2528,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30.75">
+    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -2611,7 +2609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="76.5">
+    <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -2692,7 +2690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="91.5">
+    <row r="8" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>106</v>
       </c>
@@ -2738,7 +2736,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="152.25">
+    <row r="9" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>111</v>
       </c>
@@ -2749,24 +2747,24 @@
         <v>113</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="91.5">
+    <row r="10" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>83</v>
@@ -2778,16 +2776,16 @@
         <v>108</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>31</v>
@@ -2799,9 +2797,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="91.5">
+    <row r="11" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>83</v>
@@ -2813,24 +2811,24 @@
         <v>108</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="91.5">
+    <row r="12" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>83</v>
@@ -2842,33 +2840,33 @@
         <v>108</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="H12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="91.5">
+    <row r="13" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>83</v>
@@ -2880,33 +2878,33 @@
         <v>108</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="91.5">
+    <row r="14" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>83</v>
@@ -2918,33 +2916,33 @@
         <v>108</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="91.5">
+    <row r="15" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>83</v>
@@ -2956,30 +2954,30 @@
         <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="91.5">
-      <c r="A16" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>83</v>
@@ -2991,22 +2989,22 @@
         <v>108</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>68</v>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -425,9 +425,6 @@
     <t>Asset data Normal flow (1 Accessories)</t>
   </si>
   <si>
-    <t>Insurance Customer (Inco Name Kosong)</t>
-  </si>
-  <si>
     <t>Error Mandatory tidak lengkap</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>2 Guarantor Personal dengan IdNo yang sama</t>
+  </si>
+  <si>
+    <t>Insurance Customer (Insco Name Kosong)</t>
   </si>
 </sst>
 </file>
@@ -2248,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2258,9 @@
     <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="34" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2"/>
-    <col min="5" max="23" width="17" style="3"/>
+    <col min="5" max="7" width="17" style="3"/>
+    <col min="8" max="8" width="22.28515625" style="3" customWidth="1"/>
+    <col min="9" max="23" width="17" style="3"/>
     <col min="24" max="31" width="17" style="1"/>
     <col min="32" max="16384" width="17" style="3"/>
   </cols>
@@ -2747,7 +2749,7 @@
         <v>113</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>30</v>
@@ -2852,13 +2854,13 @@
         <v>124</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>76</v>
@@ -2866,7 +2868,7 @@
     </row>
     <row r="13" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>83</v>
@@ -2890,13 +2892,13 @@
         <v>124</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>76</v>
@@ -2904,7 +2906,7 @@
     </row>
     <row r="14" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>83</v>
@@ -2928,13 +2930,13 @@
         <v>124</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>76</v>
@@ -2942,7 +2944,7 @@
     </row>
     <row r="15" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>83</v>
@@ -2963,21 +2965,21 @@
         <v>118</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>83</v>
@@ -2998,13 +3000,13 @@
         <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>68</v>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="221">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -468,6 +468,249 @@
   </si>
   <si>
     <t>2 Guarantor Personal dengan IdNo yang sama</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>ScnC-016</t>
+  </si>
+  <si>
+    <t>Cust Company Input semua mandatory kecuali Tax ID No</t>
+  </si>
+  <si>
+    <t>Cust Company Input Data Tax ID No&gt; 15</t>
+  </si>
+  <si>
+    <t>Cust Company Input Data Tax ID No dengan alphanumeric</t>
+  </si>
+  <si>
+    <t>Cust Company Input Data RT &amp; RW dengan alphanumeric</t>
+  </si>
+  <si>
+    <t>Cust Company Lookup tidak menemukan customer</t>
+  </si>
+  <si>
+    <t>Cust Company Input Data</t>
+  </si>
+  <si>
+    <t>1 MS Personal Input data input semua mandatory kecuali ID Type</t>
+  </si>
+  <si>
+    <t>1 MS Personal Input data ID No dengan alpha numeric</t>
+  </si>
+  <si>
+    <t>1 MS Personal Input data Mobile Phone dengan alpha numeric</t>
+  </si>
+  <si>
+    <t>1 MS Personal Input data Tax ID No dengan alpha numeric</t>
+  </si>
+  <si>
+    <t>1 MS Personal Input data email tanpa "." atau "@"</t>
+  </si>
+  <si>
+    <t>1 MS Personal Input data Share &gt; 100%</t>
+  </si>
+  <si>
+    <t>1 MS Personal Input data RT &amp; RW dengan alphanumeric</t>
+  </si>
+  <si>
+    <t>1 MS Personal Lookup tidak menemukan customer</t>
+  </si>
+  <si>
+    <t>1 MS Personal InputData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MS Personal InputData </t>
+  </si>
+  <si>
+    <t>1 MS Company input Tax ID No &gt; 15</t>
+  </si>
+  <si>
+    <t>1 MS Company input Tax ID No dengan alpha numeric</t>
+  </si>
+  <si>
+    <t>ScnC-017</t>
+  </si>
+  <si>
+    <t>ScnC-018</t>
+  </si>
+  <si>
+    <t>ScnC-019</t>
+  </si>
+  <si>
+    <t>ScnC-020</t>
+  </si>
+  <si>
+    <t>1 MS Company input RT &amp; RW dengan alphanumeric</t>
+  </si>
+  <si>
+    <t>1 MS Company Lookup tidak menemukan customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MS Company Lookup </t>
+  </si>
+  <si>
+    <t>1 MS Company Share &gt; 100%</t>
+  </si>
+  <si>
+    <t>1 MS Public input semua mandatory kecuali Address</t>
+  </si>
+  <si>
+    <t>1 MS Public input RT &amp; RW dengan alphanumeric</t>
+  </si>
+  <si>
+    <t>1 MS Public Share &gt; 100%</t>
+  </si>
+  <si>
+    <t>1 MS Personal InputData share 30% Active</t>
+  </si>
+  <si>
+    <t>1 MS Company Lookup share 50% Active</t>
+  </si>
+  <si>
+    <t>1 MS Public InputData Share 20% inactive</t>
+  </si>
+  <si>
+    <t>1 MS Personal InputData share 50% Active</t>
+  </si>
+  <si>
+    <t>1 MS Public InputData Share 100% Active</t>
+  </si>
+  <si>
+    <t>1 MS Public InputData Share 20% Active</t>
+  </si>
+  <si>
+    <t>ScnC-021</t>
+  </si>
+  <si>
+    <t>ScnC-022</t>
+  </si>
+  <si>
+    <t>ScnC-023</t>
+  </si>
+  <si>
+    <t>ScnC-024</t>
+  </si>
+  <si>
+    <t>ScnC-025</t>
+  </si>
+  <si>
+    <t>1 MS Personal Input data Birth Date &gt;= Business Date</t>
+  </si>
+  <si>
+    <t>ScnC-026</t>
+  </si>
+  <si>
+    <t>1 MS Company input semua mandatory kecuali Company type</t>
+  </si>
+  <si>
+    <t>ScnC-027</t>
+  </si>
+  <si>
+    <t>ScnC-028</t>
+  </si>
+  <si>
+    <t>ScnC-029</t>
+  </si>
+  <si>
+    <t>ScnC-030</t>
+  </si>
+  <si>
+    <t>ScnC-031</t>
+  </si>
+  <si>
+    <t>ScnC-032</t>
+  </si>
+  <si>
+    <t>ScnC-034</t>
+  </si>
+  <si>
+    <t>ScnC-035</t>
+  </si>
+  <si>
+    <t>ScnC-033</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Input data ID No dengan alpha numeric</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Input data Tax ID No dengan alpha numeric</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Input data Mobile Phone dengan alpha numeric</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Input data email tanpa "." atau "@"</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Input data RT &amp; RW dengan alphanumeric</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Input data Birth Date &gt;= Business Date</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Lookup tidak menemukan customer</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Lookup</t>
+  </si>
+  <si>
+    <t>ScnC-036</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Input data input semua mandatory kecuali ID No</t>
+  </si>
+  <si>
+    <t>1 Guar Personal Input data dengan ID Type E-KTP dan ID No &gt; 16</t>
+  </si>
+  <si>
+    <t>2 Guar Personal dengan ID No yang sama</t>
+  </si>
+  <si>
+    <t>1 Guar Company input semua mandatory kecuali Guarantor Name</t>
+  </si>
+  <si>
+    <t>ScnC-037</t>
+  </si>
+  <si>
+    <t>ScnC-038</t>
+  </si>
+  <si>
+    <t>ScnC-039</t>
+  </si>
+  <si>
+    <t>ScnC-040</t>
+  </si>
+  <si>
+    <t>ScnC-041</t>
+  </si>
+  <si>
+    <t>ScnC-042</t>
+  </si>
+  <si>
+    <t>1 Guar Company input Tax ID No &gt; 15</t>
+  </si>
+  <si>
+    <t>1 Guar Company input Tax ID No dengan alpha numeric</t>
+  </si>
+  <si>
+    <t>1 Guar Company input RT &amp; RW dengan alphanumeric</t>
+  </si>
+  <si>
+    <t>1 Guar Company Lookup tidak menemukan customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Guar Company Lookup </t>
+  </si>
+  <si>
+    <t>2 Guar Company dengan Tax Id No yang sama</t>
   </si>
 </sst>
 </file>
@@ -491,7 +734,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -568,11 +811,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -603,6 +881,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2246,320 +2545,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="3"/>
+    <col min="1" max="1" width="17" style="1"/>
     <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2"/>
-    <col min="5" max="23" width="17" style="3"/>
-    <col min="24" max="31" width="17" style="1"/>
-    <col min="32" max="16384" width="17" style="3"/>
+    <col min="3" max="5" width="34" style="2" customWidth="1"/>
+    <col min="6" max="7" width="17" style="2"/>
+    <col min="8" max="26" width="17" style="3"/>
+    <col min="27" max="34" width="17" style="1"/>
+    <col min="35" max="16384" width="17" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>144</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="AB4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2591,426 +2835,1489 @@
         <v>30</v>
       </c>
       <c r="X5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="AA6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AC6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="AD7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="AA9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="AA10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="4"/>
+      <c r="AA11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="AA12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="AA13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="AA14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="AA16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="AA17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="AA18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="AA19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="G54" s="16"/>
+      <c r="H54" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G55" s="17"/>
+      <c r="H55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="56" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G56" s="6"/>
+      <c r="H56" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="57" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G57" s="17"/>
+      <c r="H57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="58" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G58" s="17"/>
+      <c r="H58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="59" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G59" s="17"/>
+      <c r="H59" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="60" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="G60" s="17"/>
+      <c r="H60" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="61" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G61" s="17"/>
+      <c r="H61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -1129,25 +1129,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,26 +1156,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,9 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,19 +1489,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1574,9 +1573,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3735,122 +3734,122 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="X28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" s="15" t="s">
+      <c r="D28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AA28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB28" s="15" t="s">
+      <c r="AA28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB28" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
     </row>
     <row r="30" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -5659,25 +5658,25 @@
       </c>
     </row>
     <row r="51" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="29" t="s">
         <v>261</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="23" t="s">
         <v>31</v>
       </c>
       <c r="H51" s="25" t="s">
@@ -5686,63 +5685,63 @@
       <c r="I51" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="15" t="s">
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AA51" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB51" s="15" t="s">
+      <c r="AA51" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB51" s="19" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="16"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="20"/>
     </row>
     <row r="53" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
@@ -7046,12 +7045,28 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="AB51:AB52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7066,28 +7081,12 @@
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="AB51:AB52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7113,21 +7112,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7196,8 +7195,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="285">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>ScnP-009</t>
-  </si>
-  <si>
-    <t>Input data dengan id type KITAS/SIM/KTM tanpa id expired date</t>
   </si>
   <si>
     <t>ScnP-010</t>
@@ -827,30 +824,12 @@
     <t xml:space="preserve"> Lookup tidak menemukan guarantor</t>
   </si>
   <si>
-    <t>Input data REVIEW</t>
-  </si>
-  <si>
-    <t>1  Input Data REVIEW</t>
-  </si>
-  <si>
-    <t>1 Input Data LOCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Input Data yang terdaftar di negative (LOCK) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Input Data yang terdaftar di negative (Review) </t>
-  </si>
-  <si>
     <t xml:space="preserve">1 AppInProcess, 1 NewCustomer, 1 MatchSimilarData, 1 LOCK Negative, 1 Review Negative </t>
   </si>
   <si>
     <t>ScnP-047</t>
   </si>
   <si>
-    <t>Input Data Review</t>
-  </si>
-  <si>
     <t>Input Appno tanpa select subject yang terkena dupcheck</t>
   </si>
   <si>
@@ -860,9 +839,6 @@
     <t>ScnP-049</t>
   </si>
   <si>
-    <t>Input Data Lock</t>
-  </si>
-  <si>
     <t>Action klik button new</t>
   </si>
   <si>
@@ -882,13 +858,58 @@
   </si>
   <si>
     <t>3a.TabGuarantorDataPersonal &amp; 3b.TabGuarantorDataCompany</t>
+  </si>
+  <si>
+    <t>ScnP-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Input data email tanpa "." </t>
+  </si>
+  <si>
+    <t>Input data email tanpa "@"</t>
+  </si>
+  <si>
+    <t>ScnP-053</t>
+  </si>
+  <si>
+    <t>Input data dengan id type KITAS tanpa id expired date</t>
+  </si>
+  <si>
+    <t>Input data dengan id type KTM tanpa id expired date</t>
+  </si>
+  <si>
+    <t>Input data dengan id type SIM tanpa id expired date</t>
+  </si>
+  <si>
+    <t>ScnP-054</t>
+  </si>
+  <si>
+    <t>ScnP-055</t>
+  </si>
+  <si>
+    <t>Input Data Lock (Sumber data FOU)</t>
+  </si>
+  <si>
+    <t>Input Data Review (Sumber data FOU)</t>
+  </si>
+  <si>
+    <t>1  Input Data LOCK (Sumber data FOU)</t>
+  </si>
+  <si>
+    <t>1 Input Data REVIEW (Sumber data app berjalan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Input Data yang terdaftar di negative_cust (LOCK) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Input Data yang terdaftar di negative_cust (Review) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +930,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -918,7 +945,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1030,62 +1057,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1129,22 +1105,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,31 +1132,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1460,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,19 +1447,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1573,9 +1531,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2099,98 +2057,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>271</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
@@ -2264,19 +2144,19 @@
       <c r="Z10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>43</v>
+      <c r="AA10" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>53</v>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -2351,7 +2231,7 @@
         <v>32</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>34</v>
@@ -2359,10 +2239,10 @@
     </row>
     <row r="12" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -2437,7 +2317,7 @@
         <v>32</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>34</v>
@@ -2445,10 +2325,10 @@
     </row>
     <row r="13" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
@@ -2520,10 +2400,10 @@
         <v>31</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>34</v>
@@ -2531,10 +2411,10 @@
     </row>
     <row r="14" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
@@ -2606,10 +2486,10 @@
         <v>31</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>34</v>
@@ -2617,13 +2497,13 @@
     </row>
     <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
@@ -2695,107 +2575,107 @@
         <v>32</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
+      <c r="B17" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -2864,24 +2744,24 @@
         <v>31</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -2953,21 +2833,21 @@
         <v>32</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -3038,22 +2918,22 @@
       <c r="Z19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA19" s="11" t="s">
-        <v>37</v>
+      <c r="AA19" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>31</v>
@@ -3128,18 +3008,18 @@
         <v>43</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>31</v>
@@ -3210,22 +3090,22 @@
       <c r="Z21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA21" s="11" t="s">
-        <v>37</v>
+      <c r="AA21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
@@ -3296,22 +3176,22 @@
       <c r="Z22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA22" s="11" t="s">
-        <v>37</v>
+      <c r="AA22" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>31</v>
@@ -3382,22 +3262,22 @@
       <c r="Z23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA23" s="1" t="s">
-        <v>43</v>
+      <c r="AA23" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>31</v>
@@ -3469,21 +3349,21 @@
         <v>32</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>31</v>
@@ -3554,22 +3434,22 @@
       <c r="Z25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>43</v>
+      <c r="AA25" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>31</v>
@@ -3640,22 +3520,22 @@
       <c r="Z26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA26" s="1" t="s">
-        <v>40</v>
+      <c r="AA26" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>87</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>31</v>
@@ -3727,142 +3607,196 @@
         <v>32</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="S28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA28" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB28" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-    </row>
-    <row r="30" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>63</v>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>31</v>
@@ -3930,25 +3864,25 @@
       <c r="Z30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA30" s="11" t="s">
-        <v>33</v>
+      <c r="AA30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>31</v>
@@ -4016,197 +3950,143 @@
       <c r="Z31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA31" s="11" t="s">
+      <c r="AA31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+    </row>
+    <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>31</v>
@@ -4274,25 +4154,25 @@
       <c r="Z34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA34" s="1" t="s">
-        <v>43</v>
+      <c r="AA34" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>238</v>
+      <c r="A35" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>31</v>
@@ -4361,24 +4241,24 @@
         <v>32</v>
       </c>
       <c r="AA35" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>239</v>
+      <c r="A36" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>31</v>
@@ -4446,25 +4326,25 @@
       <c r="Z36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA36" s="11" t="s">
-        <v>37</v>
+      <c r="AA36" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>240</v>
+      <c r="A37" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>31</v>
@@ -4532,25 +4412,25 @@
       <c r="Z37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA37" s="1" t="s">
-        <v>43</v>
+      <c r="AA37" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>241</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>31</v>
@@ -4618,25 +4498,25 @@
       <c r="Z38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA38" s="11" t="s">
-        <v>33</v>
+      <c r="AA38" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>242</v>
+      <c r="A39" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>31</v>
@@ -4705,24 +4585,24 @@
         <v>32</v>
       </c>
       <c r="AA39" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>243</v>
+      <c r="A40" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>247</v>
+        <v>88</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>31</v>
@@ -4791,27 +4671,27 @@
         <v>32</v>
       </c>
       <c r="AA40" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>244</v>
+      <c r="A41" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>31</v>
@@ -4876,28 +4756,28 @@
       <c r="Z41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA41" s="11" t="s">
-        <v>33</v>
+      <c r="AA41" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>245</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>152</v>
+        <v>88</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>31</v>
@@ -4963,27 +4843,27 @@
         <v>32</v>
       </c>
       <c r="AA42" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>248</v>
+      <c r="A43" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>154</v>
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>31</v>
@@ -5049,27 +4929,27 @@
         <v>32</v>
       </c>
       <c r="AA43" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>249</v>
+      <c r="A44" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>31</v>
@@ -5134,28 +5014,28 @@
       <c r="Z44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA44" s="1" t="s">
-        <v>43</v>
+      <c r="AA44" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>250</v>
+      <c r="A45" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>31</v>
@@ -5220,28 +5100,28 @@
       <c r="Z45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA45" s="1" t="s">
-        <v>43</v>
+      <c r="AA45" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>251</v>
+      <c r="A46" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>197</v>
+      <c r="E46" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>31</v>
@@ -5307,110 +5187,110 @@
         <v>32</v>
       </c>
       <c r="AA46" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>253</v>
-      </c>
       <c r="B48" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>255</v>
+        <v>88</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>257</v>
@@ -5476,33 +5356,33 @@
         <v>31</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA48" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>31</v>
@@ -5565,30 +5445,30 @@
         <v>32</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>31</v>
@@ -5650,120 +5530,206 @@
       <c r="Z50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AA50" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D51" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>261</v>
       </c>
+      <c r="B51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="E51" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="B52" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA51" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB51" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="20"/>
-    </row>
-    <row r="53" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>274</v>
+        <v>31</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>31</v>
@@ -5826,30 +5792,30 @@
         <v>40</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="A54" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>31</v>
@@ -5906,414 +5872,455 @@
         <v>31</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA54" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="17"/>
+    </row>
+    <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA55" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="AA56" s="11"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="AA57" s="11"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="AA58" s="11"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="B57" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA58" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
+      <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
     </row>
-    <row r="64" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" ht="225" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>31</v>
@@ -6376,199 +6383,116 @@
         <v>40</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="F70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB69" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>31</v>
@@ -6622,36 +6546,36 @@
         <v>32</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>31</v>
@@ -6705,36 +6629,36 @@
         <v>32</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>31</v>
@@ -6788,39 +6712,39 @@
         <v>32</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I74" s="1" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>31</v>
@@ -6871,39 +6795,39 @@
         <v>32</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="J75" s="1" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>31</v>
@@ -6954,39 +6878,39 @@
         <v>32</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>31</v>
@@ -7037,58 +6961,407 @@
         <v>32</v>
       </c>
       <c r="AA76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB76" s="1" t="s">
-        <v>114</v>
+      <c r="AB79" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="K28:K29"/>
+  <mergeCells count="58">
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="Z55:Z56"/>
+    <mergeCell ref="AA55:AA56"/>
+    <mergeCell ref="AB55:AB56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="K32:K33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="AB51:AB52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7112,21 +7385,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7195,8 +7468,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -7204,7 +7477,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -7234,10 +7507,10 @@
     </row>
     <row r="3" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -7270,10 +7543,10 @@
     </row>
     <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7346,10 +7619,10 @@
     </row>
     <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7422,10 +7695,10 @@
     </row>
     <row r="6" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7489,10 +7762,10 @@
     </row>
     <row r="7" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7545,7 +7818,7 @@
         <v>31</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>31</v>
@@ -7565,10 +7838,10 @@
     </row>
     <row r="8" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7595,7 +7868,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>31</v>
@@ -7606,13 +7879,13 @@
     </row>
     <row r="9" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -7670,7 +7943,7 @@
         <v>33</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>31</v>
@@ -7684,13 +7957,13 @@
     </row>
     <row r="10" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -7703,15 +7976,15 @@
         <v>37</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>49</v>
@@ -7729,18 +8002,18 @@
         <v>37</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7753,18 +8026,18 @@
         <v>40</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7779,18 +8052,18 @@
         <v>40</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7805,18 +8078,18 @@
         <v>40</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -7831,18 +8104,18 @@
         <v>43</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7851,24 +8124,24 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="AA16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -7877,27 +8150,27 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="AA17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -7911,21 +8184,21 @@
         <v>33</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -7939,21 +8212,21 @@
         <v>37</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7970,21 +8243,21 @@
         <v>37</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -7996,21 +8269,21 @@
         <v>40</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -8027,19 +8300,19 @@
         <v>43</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -8050,25 +8323,25 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -8079,30 +8352,30 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -8118,24 +8391,24 @@
         <v>33</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -8151,24 +8424,24 @@
         <v>37</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -8184,20 +8457,20 @@
         <v>40</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -8207,30 +8480,30 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -8246,24 +8519,24 @@
         <v>40</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -8279,24 +8552,24 @@
         <v>40</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -8306,33 +8579,33 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -8347,27 +8620,27 @@
         <v>33</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -8382,27 +8655,27 @@
         <v>37</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -8417,24 +8690,24 @@
         <v>37</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>49</v>
@@ -8452,27 +8725,27 @@
         <v>37</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -8487,27 +8760,27 @@
         <v>40</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -8522,27 +8795,27 @@
         <v>40</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -8554,30 +8827,30 @@
         <v>32</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -8592,27 +8865,27 @@
         <v>43</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -8621,33 +8894,33 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -8656,36 +8929,36 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -8699,30 +8972,30 @@
         <v>33</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -8736,30 +9009,30 @@
         <v>37</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -8773,30 +9046,30 @@
         <v>37</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -8810,30 +9083,30 @@
         <v>43</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -8847,30 +9120,30 @@
         <v>40</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -8878,36 +9151,36 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -8915,13 +9188,13 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -8969,10 +9242,10 @@
     </row>
     <row r="52" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -8992,7 +9265,7 @@
     </row>
     <row r="53" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>31</v>
@@ -9000,16 +9273,16 @@
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="1"/>
@@ -9029,7 +9302,7 @@
     </row>
     <row r="55" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>31</v>
@@ -9037,7 +9310,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
@@ -9052,43 +9325,43 @@
     </row>
     <row r="56" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="7"/>
       <c r="F58" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="4" t="s">
@@ -9097,195 +9370,195 @@
     </row>
     <row r="59" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="J59" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="K61" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="J62" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="K62" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="K63" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="K64" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="K65" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D66" s="6"/>
     </row>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BankDataScenarioPersonal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="298">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -903,6 +903,47 @@
   </si>
   <si>
     <t xml:space="preserve">1 Input Data yang terdaftar di negative_cust (Review) </t>
+  </si>
+  <si>
+    <t>ScnC-047</t>
+  </si>
+  <si>
+    <t>ScnC-048</t>
+  </si>
+  <si>
+    <t>ScnC-049</t>
+  </si>
+  <si>
+    <t>ScnC-050</t>
+  </si>
+  <si>
+    <t>ScnC-051</t>
+  </si>
+  <si>
+    <t>ScnC-052</t>
+  </si>
+  <si>
+    <t>Guarantor Tax Id no = Customer Company Tax Id No</t>
+  </si>
+  <si>
+    <t>InputData LOCK 
+Share 50%(Sumber data FOU)</t>
+  </si>
+  <si>
+    <t>Input 1 Agency 1 MF Employee 1 Customer</t>
+  </si>
+  <si>
+    <t>ScnC-020a</t>
+  </si>
+  <si>
+    <t>Input Data ShareHolder Tax ID No = Customer Company Tax Id No</t>
+  </si>
+  <si>
+    <t>ScnC-044a</t>
+  </si>
+  <si>
+    <t>InputData Review 
+Share 50% (Sumber data Berjalan)</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1108,10 +1149,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,23 +1176,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:F56"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N59" sqref="A55:N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,19 +1506,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1531,9 +1590,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3958,122 +4017,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="16" t="s">
+      <c r="D32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="16" t="s">
+      <c r="AA32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -5882,122 +5941,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="23" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="16" t="s">
+      <c r="G55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="16" t="s">
+      <c r="AA55" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="17" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="19"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="18"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -7301,12 +7360,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -7323,42 +7412,12 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7367,10 +7426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH66"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
-    <sheetView topLeftCell="B38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7378,28 +7437,30 @@
     <col min="1" max="1" width="17" style="1"/>
     <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
     <col min="3" max="5" width="34" style="2" customWidth="1"/>
-    <col min="6" max="7" width="17" style="2"/>
-    <col min="8" max="26" width="17" style="3"/>
+    <col min="6" max="6" width="21.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="3" customWidth="1"/>
+    <col min="9" max="26" width="17" style="3"/>
     <col min="27" max="34" width="17" style="1"/>
     <col min="35" max="16384" width="17" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7468,8 +7529,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -8133,7 +8194,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>145</v>
       </c>
@@ -8159,7 +8220,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
@@ -8187,7 +8248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
@@ -8215,7 +8276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
@@ -8246,7 +8307,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>154</v>
       </c>
@@ -8272,7 +8333,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>156</v>
       </c>
@@ -8303,45 +8364,50 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:34" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="AA23" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC23" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+    </row>
+    <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="AA23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -8361,22 +8427,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -8385,18 +8447,18 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>129</v>
@@ -8408,7 +8470,7 @@
         <v>162</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -8420,16 +8482,16 @@
       <c r="AA26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB26" s="11" t="s">
-        <v>37</v>
+      <c r="AB26" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>129</v>
@@ -8441,7 +8503,7 @@
         <v>162</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -8453,24 +8515,28 @@
       <c r="AA27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>40</v>
+      <c r="AB27" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -8480,30 +8546,26 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -8513,18 +8575,18 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>129</v>
@@ -8536,7 +8598,7 @@
         <v>162</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -8555,9 +8617,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>129</v>
@@ -8569,7 +8631,7 @@
         <v>162</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -8579,18 +8641,18 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>129</v>
@@ -8604,9 +8666,7 @@
       <c r="E32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -8614,18 +8674,18 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>129</v>
@@ -8640,7 +8700,7 @@
         <v>171</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -8651,31 +8711,31 @@
       <c r="AA33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB33" s="11" t="s">
-        <v>37</v>
+      <c r="AB33" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -8693,9 +8753,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>129</v>
@@ -8710,7 +8770,7 @@
         <v>171</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -8728,9 +8788,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>129</v>
@@ -8745,7 +8805,7 @@
         <v>171</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -8756,16 +8816,16 @@
       <c r="AA36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB36" s="1" t="s">
-        <v>40</v>
+      <c r="AB36" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>129</v>
@@ -8780,7 +8840,7 @@
         <v>171</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -8798,9 +8858,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>129</v>
@@ -8815,7 +8875,7 @@
         <v>171</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -8827,15 +8887,15 @@
         <v>32</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>129</v>
@@ -8850,7 +8910,7 @@
         <v>171</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -8862,15 +8922,15 @@
         <v>32</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>129</v>
@@ -8885,7 +8945,7 @@
         <v>171</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -8894,18 +8954,18 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>129</v>
@@ -8920,7 +8980,7 @@
         <v>171</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -8938,9 +8998,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>129</v>
@@ -8957,27 +9017,25 @@
       <c r="F42" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>129</v>
@@ -8994,8 +9052,8 @@
       <c r="F43" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>151</v>
+      <c r="G43" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -9005,16 +9063,16 @@
       <c r="AA43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB43" s="11" t="s">
-        <v>37</v>
+      <c r="AB43" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>129</v>
@@ -9032,7 +9090,7 @@
         <v>189</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -9049,9 +9107,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>129</v>
@@ -9068,8 +9126,8 @@
       <c r="F45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>125</v>
+      <c r="G45" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -9079,16 +9137,16 @@
       <c r="AA45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB45" s="1" t="s">
-        <v>43</v>
+      <c r="AB45" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>129</v>
@@ -9106,7 +9164,7 @@
         <v>189</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -9117,15 +9175,15 @@
         <v>32</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>129</v>
@@ -9140,10 +9198,10 @@
         <v>171</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -9151,110 +9209,193 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="AA48" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB48" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC48" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
+    </row>
+    <row r="49" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="AA48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC48" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="3"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="AA49" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB49" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="1"/>
+      <c r="AA50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="AA51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="B52" s="1" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H52" s="1" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>31</v>
@@ -9262,305 +9403,759 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="AA52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="AA53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H54" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="AA54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="B55" s="1" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="AA55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="B56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="AA56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
+      <c r="D81" s="1"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
+      <c r="D82" s="3"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="5" t="s">
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
+      <c r="G83" s="8"/>
+      <c r="H83" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
+      <c r="D84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="4" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+    <row r="85" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="3" t="s">
+      <c r="G85" s="6"/>
+      <c r="H85" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+    <row r="86" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="4" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="L86" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
+    <row r="87" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6" t="s">
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="4" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J87" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L87" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+    <row r="88" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="4" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J88" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="L88" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+    <row r="89" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6" t="s">
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="4" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
+    <row r="90" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6" t="s">
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="4" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+    <row r="91" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="6"/>
+      <c r="D91" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="374">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -944,6 +944,235 @@
   <si>
     <t>InputData Review 
 Share 50% (Sumber data Berjalan)</t>
+  </si>
+  <si>
+    <t>Kosongkan semua Mandatory</t>
+  </si>
+  <si>
+    <t>Input APPI Score, Jumlah Asset, RT/RW, Phone1, Phone2, Phone 3 dengan Alpha Numeric</t>
+  </si>
+  <si>
+    <t>Input Application Data Tenor 12 Monthly
+Regular Fixed</t>
+  </si>
+  <si>
+    <t>Lookup tidak menemukan supplier name</t>
+  </si>
+  <si>
+    <t>Lookup tidak menenukan ref app data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup tidak menemukan Economic Sector </t>
+  </si>
+  <si>
+    <t>Lookup Tidak menemukan asset name</t>
+  </si>
+  <si>
+    <t>Lookup tidak menemukan BPKB City Issuer</t>
+  </si>
+  <si>
+    <t>Input Manufacturing Year, Owner Mobile Phone No, Owner ID No (E-KTP) dengan alhpa numeric</t>
+  </si>
+  <si>
+    <t>Input DP Percentage &gt; 100%</t>
+  </si>
+  <si>
+    <t>Lookup tidak menemukan supplier name Accessories</t>
+  </si>
+  <si>
+    <t>Lookup tidak menemukan accessories name</t>
+  </si>
+  <si>
+    <t>Input DP Percentage accessories &gt; 100%</t>
+  </si>
+  <si>
+    <t>Input DP Amount &gt; Asset Price</t>
+  </si>
+  <si>
+    <t>Input DP Amount accessories &gt; Accessories Price</t>
+  </si>
+  <si>
+    <t>Input Asset Data New</t>
+  </si>
+  <si>
+    <t>Input Asset Data Used Click Check Rapindo</t>
+  </si>
+  <si>
+    <t>Input Asset Data Used</t>
+  </si>
+  <si>
+    <t>Input Insurance Insured By Off System</t>
+  </si>
+  <si>
+    <t>Input Insurance Insured By Customer Kosongkan semua Mandatory</t>
+  </si>
+  <si>
+    <t>Input Insurance Insured By Customer End Date &lt; Start Date</t>
+  </si>
+  <si>
+    <t>Input Insurance Insured By Multifinance Kosongkan semua Mandatory</t>
+  </si>
+  <si>
+    <t>Input Owner ID (E-KTP) No &lt; 16 digit atau &gt; 16 digit</t>
+  </si>
+  <si>
+    <t>Lookup tidak menemukan MO's Officer</t>
+  </si>
+  <si>
+    <t>Input Tenor 0</t>
+  </si>
+  <si>
+    <t>Input DP Amount 0</t>
+  </si>
+  <si>
+    <t>Input Insurance inursed By Multifinance partial tenor insurance Length &gt; Tenor</t>
+  </si>
+  <si>
+    <t>Input Insurance inursed By Multifinance Over tenor insurance Length &lt; Tenor</t>
+  </si>
+  <si>
+    <t>Input Insurance inursed By Multifinance Discount &gt; Total Premium to Customer</t>
+  </si>
+  <si>
+    <t>Input Insurance inursed By Cust-Multifinance Insurance Length = 0</t>
+  </si>
+  <si>
+    <t>Input Asset Price 0</t>
+  </si>
+  <si>
+    <t>Input Insurance inursed By Cust-Multifinance kosongkan Section Cust</t>
+  </si>
+  <si>
+    <t>Input Insurance inursed By Cust-Multifinance kosongkan Section Multifinance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Insurance inursed By Cust-Multifinance </t>
+  </si>
+  <si>
+    <t>Input Insurance Insured By Customer</t>
+  </si>
+  <si>
+    <t>Input Insurance inursed By Multifinance</t>
+  </si>
+  <si>
+    <t>ScnC-053</t>
+  </si>
+  <si>
+    <t>ScnC-054</t>
+  </si>
+  <si>
+    <t>ScnC-055</t>
+  </si>
+  <si>
+    <t>ScnC-056</t>
+  </si>
+  <si>
+    <t>ScnC-057</t>
+  </si>
+  <si>
+    <t>ScnC-058</t>
+  </si>
+  <si>
+    <t>ScnC-059</t>
+  </si>
+  <si>
+    <t>ScnC-060</t>
+  </si>
+  <si>
+    <t>ScnC-061</t>
+  </si>
+  <si>
+    <t>ScnC-062</t>
+  </si>
+  <si>
+    <t>ScnC-063</t>
+  </si>
+  <si>
+    <t>ScnC-064</t>
+  </si>
+  <si>
+    <t>ScnC-065</t>
+  </si>
+  <si>
+    <t>ScnC-066</t>
+  </si>
+  <si>
+    <t>ScnC-067</t>
+  </si>
+  <si>
+    <t>ScnC-068</t>
+  </si>
+  <si>
+    <t>ScnC-069</t>
+  </si>
+  <si>
+    <t>ScnC-070</t>
+  </si>
+  <si>
+    <t>ScnC-071</t>
+  </si>
+  <si>
+    <t>ScnC-072</t>
+  </si>
+  <si>
+    <t>ScnC-073</t>
+  </si>
+  <si>
+    <t>ScnC-074</t>
+  </si>
+  <si>
+    <t>ScnC-075</t>
+  </si>
+  <si>
+    <t>ScnC-076</t>
+  </si>
+  <si>
+    <t>ScnC-077</t>
+  </si>
+  <si>
+    <t>ScnC-078</t>
+  </si>
+  <si>
+    <t>ScnC-079</t>
+  </si>
+  <si>
+    <t>ScnC-080</t>
+  </si>
+  <si>
+    <t>ScnC-081</t>
+  </si>
+  <si>
+    <t>ScnC-082</t>
+  </si>
+  <si>
+    <t>ScnC-083</t>
+  </si>
+  <si>
+    <t>ScnC-084</t>
+  </si>
+  <si>
+    <t>ScnC-085</t>
+  </si>
+  <si>
+    <t>ScnC-086</t>
+  </si>
+  <si>
+    <t>ScnC-087</t>
+  </si>
+  <si>
+    <t>ScnC-088</t>
+  </si>
+  <si>
+    <t>ScnC-089</t>
+  </si>
+  <si>
+    <t>7.TabAsset</t>
+  </si>
+  <si>
+    <t>7a.Accessories</t>
+  </si>
+  <si>
+    <t>8.TabInsurance</t>
   </si>
 </sst>
 </file>
@@ -1149,36 +1378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1196,6 +1395,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N59" sqref="A55:N59"/>
     </sheetView>
   </sheetViews>
@@ -1506,19 +1735,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1590,9 +1819,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4017,122 +4246,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="17" t="s">
+      <c r="D32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="17" t="s">
+      <c r="AA32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -5941,122 +6170,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="17" t="s">
+      <c r="G55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="17" t="s">
+      <c r="AA55" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="22" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="24"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="18"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="23"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -7360,42 +7589,12 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -7412,12 +7611,42 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7426,10 +7655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7440,27 +7669,29 @@
     <col min="6" max="6" width="21.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" style="3" customWidth="1"/>
-    <col min="9" max="26" width="17" style="3"/>
+    <col min="9" max="10" width="17" style="3"/>
+    <col min="11" max="11" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="17" style="3" customWidth="1"/>
     <col min="27" max="34" width="17" style="1"/>
     <col min="35" max="16384" width="17" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7529,8 +7760,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -8364,39 +8595,39 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:34" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="AA23" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB23" s="30" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="AA23" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AC23" s="30" t="s">
+      <c r="AC23" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
     </row>
     <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -9218,47 +9449,47 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:34" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:34" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="G48" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="AA48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB48" s="27" t="s">
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="AA48" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB48" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AC48" s="27" t="s">
+      <c r="AC48" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="27"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
     </row>
     <row r="49" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -9287,10 +9518,10 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="AA49" s="27" t="s">
+      <c r="AA49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AB49" s="27" t="s">
+      <c r="AB49" s="17" t="s">
         <v>31</v>
       </c>
       <c r="AC49" s="1" t="s">
@@ -9435,7 +9666,7 @@
       <c r="G53" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="16" t="s">
         <v>258</v>
       </c>
       <c r="I53" s="1"/>
@@ -9575,587 +9806,2173 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+    <row r="57" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="AA57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC57" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="AA58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="AA59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="AA60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="AA61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="AA62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB62" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="AA63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="AA64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="AA65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="AA66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="AA67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="AA68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB68" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="AA69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB69" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="AA70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB70" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="AA71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="AA72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB72" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="AA73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB73" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="AA74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="L75" s="1"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="AA75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="L76" s="1"/>
-    </row>
-    <row r="77" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="AA76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB76" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="B77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="AA77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="AA78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="AA79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="AA80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC80" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB90" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC91" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
+      <c r="C108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+      <c r="D109" s="3"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+      <c r="G110" s="1"/>
+      <c r="H110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
+      <c r="D111" s="1"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
+      <c r="D112" s="3"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="s">
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C113" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="5" t="s">
+      <c r="D113" s="6"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
+      <c r="G113" s="8"/>
+      <c r="H113" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C114" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6" t="s">
+      <c r="D114" s="7"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="4" t="s">
+      <c r="G114" s="9"/>
+      <c r="H114" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I114" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K114" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
+    <row r="115" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C115" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6" t="s">
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="3" t="s">
+      <c r="G115" s="6"/>
+      <c r="H115" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
+    <row r="116" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6" t="s">
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="4" t="s">
+      <c r="G116" s="9"/>
+      <c r="H116" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I116" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J116" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K116" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="L116" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
+    <row r="117" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="4" t="s">
+      <c r="G117" s="9"/>
+      <c r="H117" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I117" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J117" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K117" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L117" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+    <row r="118" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="4" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I118" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J118" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K118" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="L118" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
+    <row r="119" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6" t="s">
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="4" t="s">
+      <c r="G119" s="9"/>
+      <c r="H119" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I119" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J119" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B90" s="6" t="s">
+    <row r="120" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6" t="s">
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="4" t="s">
+      <c r="G120" s="9"/>
+      <c r="H120" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I120" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J120" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B91" s="6" t="s">
+    <row r="121" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D91" s="6"/>
+      <c r="D121" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10165,5 +11982,6 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="380">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -949,9 +949,6 @@
     <t>Kosongkan semua Mandatory</t>
   </si>
   <si>
-    <t>Input APPI Score, Jumlah Asset, RT/RW, Phone1, Phone2, Phone 3 dengan Alpha Numeric</t>
-  </si>
-  <si>
     <t>Input Application Data Tenor 12 Monthly
 Regular Fixed</t>
   </si>
@@ -971,9 +968,6 @@
     <t>Lookup tidak menemukan BPKB City Issuer</t>
   </si>
   <si>
-    <t>Input Manufacturing Year, Owner Mobile Phone No, Owner ID No (E-KTP) dengan alhpa numeric</t>
-  </si>
-  <si>
     <t>Input DP Percentage &gt; 100%</t>
   </si>
   <si>
@@ -1013,9 +1007,6 @@
     <t>Input Insurance Insured By Multifinance Kosongkan semua Mandatory</t>
   </si>
   <si>
-    <t>Input Owner ID (E-KTP) No &lt; 16 digit atau &gt; 16 digit</t>
-  </si>
-  <si>
     <t>Lookup tidak menemukan MO's Officer</t>
   </si>
   <si>
@@ -1173,6 +1164,33 @@
   </si>
   <si>
     <t>8.TabInsurance</t>
+  </si>
+  <si>
+    <t>Input APPI Score, Jumlah Asset, RT/RW, Phone1, Phone2, Phone 3, Fax dengan Alpha Numeric</t>
+  </si>
+  <si>
+    <t>Input Manufacturing Year, Owner Mobile Phone No, Owner ID No (E-KTP) , RT, RW dengan alhpa numeric</t>
+  </si>
+  <si>
+    <t>Input Owner ID (E-KTP) No &lt; 16 digit</t>
+  </si>
+  <si>
+    <t>Input Owner ID (E-KTP) No &gt; 16 digit</t>
+  </si>
+  <si>
+    <t>ScnC-069a</t>
+  </si>
+  <si>
+    <t>input insurance multifinance Genset = Partial captilize &gt; Premi after discount</t>
+  </si>
+  <si>
+    <t>ScnC-079a</t>
+  </si>
+  <si>
+    <t>Input Insurance Insured By Customer End Date &lt; Business Date</t>
+  </si>
+  <si>
+    <t>ScnC-090</t>
   </si>
 </sst>
 </file>
@@ -1396,16 +1414,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1414,13 +1435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1735,19 +1753,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1819,9 +1837,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4246,122 +4264,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="22" t="s">
+      <c r="D32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="22" t="s">
+      <c r="AA32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6170,122 +6188,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="29" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="22" t="s">
+      <c r="G55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="22" t="s">
+      <c r="AA55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="23" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="23"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="24"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -7589,12 +7607,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -7611,42 +7659,12 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7655,19 +7673,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH121"/>
+  <dimension ref="A1:AH123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L96" sqref="A96:L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1"/>
     <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="34" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="34" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" style="3" customWidth="1"/>
     <col min="9" max="10" width="17" style="3"/>
     <col min="11" max="11" width="21" style="3" bestFit="1" customWidth="1"/>
@@ -7677,21 +7695,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="31"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7760,8 +7778,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -9808,7 +9826,7 @@
     </row>
     <row r="57" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>127</v>
@@ -9851,7 +9869,7 @@
     </row>
     <row r="58" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>127</v>
@@ -9878,7 +9896,7 @@
         <v>268</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -9894,7 +9912,7 @@
     </row>
     <row r="59" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>127</v>
@@ -9921,7 +9939,7 @@
         <v>268</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -9937,7 +9955,7 @@
     </row>
     <row r="60" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>127</v>
@@ -9964,7 +9982,7 @@
         <v>268</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -9980,7 +9998,7 @@
     </row>
     <row r="61" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>127</v>
@@ -10007,7 +10025,7 @@
         <v>268</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -10023,7 +10041,7 @@
     </row>
     <row r="62" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>127</v>
@@ -10050,7 +10068,7 @@
         <v>268</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -10066,7 +10084,7 @@
     </row>
     <row r="63" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>127</v>
@@ -10093,7 +10111,7 @@
         <v>268</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -10109,7 +10127,7 @@
     </row>
     <row r="64" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>127</v>
@@ -10136,7 +10154,7 @@
         <v>268</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>149</v>
@@ -10149,12 +10167,12 @@
         <v>33</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>127</v>
@@ -10181,10 +10199,10 @@
         <v>268</v>
       </c>
       <c r="J65" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="L65" s="1"/>
       <c r="AA65" s="1" t="s">
@@ -10194,12 +10212,12 @@
         <v>43</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>127</v>
@@ -10226,10 +10244,10 @@
         <v>268</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L66" s="1"/>
       <c r="AA66" s="1" t="s">
@@ -10239,12 +10257,12 @@
         <v>43</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>127</v>
@@ -10271,10 +10289,10 @@
         <v>268</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L67" s="1"/>
       <c r="AA67" s="1" t="s">
@@ -10284,12 +10302,12 @@
         <v>43</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>127</v>
@@ -10316,10 +10334,10 @@
         <v>268</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L68" s="1"/>
       <c r="AA68" s="1" t="s">
@@ -10329,12 +10347,12 @@
         <v>37</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>127</v>
@@ -10361,10 +10379,10 @@
         <v>268</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L69" s="1"/>
       <c r="AA69" s="1" t="s">
@@ -10374,12 +10392,12 @@
         <v>37</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>127</v>
@@ -10406,10 +10424,10 @@
         <v>268</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L70" s="1"/>
       <c r="AA70" s="1" t="s">
@@ -10419,12 +10437,12 @@
         <v>37</v>
       </c>
       <c r="AC70" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>127</v>
@@ -10451,10 +10469,10 @@
         <v>268</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L71" s="1"/>
       <c r="AA71" s="1" t="s">
@@ -10464,12 +10482,12 @@
         <v>40</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>127</v>
@@ -10496,10 +10514,10 @@
         <v>268</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="L72" s="1"/>
       <c r="AA72" s="1" t="s">
@@ -10509,12 +10527,12 @@
         <v>37</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>127</v>
@@ -10541,10 +10559,10 @@
         <v>268</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="L73" s="1"/>
       <c r="AA73" s="1" t="s">
@@ -10554,12 +10572,12 @@
         <v>37</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>127</v>
@@ -10586,25 +10604,17 @@
         <v>268</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="L74" s="1"/>
-      <c r="AA74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC74" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="AB74" s="11"/>
     </row>
     <row r="75" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>127</v>
@@ -10631,10 +10641,10 @@
         <v>268</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L75" s="1"/>
       <c r="AA75" s="1" t="s">
@@ -10644,12 +10654,12 @@
         <v>43</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>127</v>
@@ -10676,25 +10686,25 @@
         <v>268</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L76" s="1"/>
       <c r="AA76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB76" s="11" t="s">
-        <v>37</v>
+      <c r="AB76" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>127</v>
@@ -10721,25 +10731,25 @@
         <v>268</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L77" s="1"/>
       <c r="AA77" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB77" s="1" t="s">
-        <v>40</v>
+      <c r="AB77" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>127</v>
@@ -10766,25 +10776,25 @@
         <v>268</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L78" s="1"/>
       <c r="AA78" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>127</v>
@@ -10811,10 +10821,10 @@
         <v>268</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L79" s="1"/>
       <c r="AA79" s="1" t="s">
@@ -10824,12 +10834,12 @@
         <v>31</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>127</v>
@@ -10856,10 +10866,10 @@
         <v>268</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L80" s="1"/>
       <c r="AA80" s="1" t="s">
@@ -10869,12 +10879,12 @@
         <v>31</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>127</v>
@@ -10901,14 +10911,12 @@
         <v>268</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="L81" s="1"/>
       <c r="AA81" s="1" t="s">
         <v>57</v>
       </c>
@@ -10916,12 +10924,12 @@
         <v>31</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>127</v>
@@ -10948,27 +10956,27 @@
         <v>268</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>127</v>
@@ -10995,27 +11003,27 @@
         <v>268</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AA83" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>127</v>
@@ -11042,27 +11050,27 @@
         <v>268</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>127</v>
@@ -11089,27 +11097,18 @@
         <v>268</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC85" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>127</v>
@@ -11136,27 +11135,27 @@
         <v>268</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>127</v>
@@ -11183,27 +11182,27 @@
         <v>268</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AA87" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>127</v>
@@ -11230,13 +11229,13 @@
         <v>268</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AA88" s="1" t="s">
         <v>32</v>
@@ -11245,12 +11244,12 @@
         <v>40</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>127</v>
@@ -11277,27 +11276,27 @@
         <v>268</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>127</v>
@@ -11324,27 +11323,27 @@
         <v>268</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AA90" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB90" s="11" t="s">
-        <v>37</v>
+      <c r="AB90" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>127</v>
@@ -11371,27 +11370,27 @@
         <v>268</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>127</v>
@@ -11418,27 +11417,27 @@
         <v>268</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AA92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB92" s="1" t="s">
-        <v>33</v>
+      <c r="AB92" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>127</v>
@@ -11465,62 +11464,155 @@
         <v>268</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AA93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC94" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA95" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB93" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC93" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
+      <c r="AB95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC95" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
@@ -11631,7 +11723,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -11644,7 +11736,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -11652,51 +11744,40 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>203</v>
-      </c>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D109" s="3"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
         <v>31</v>
@@ -11712,99 +11793,93 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-    </row>
-    <row r="111" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
+      <c r="G112" s="1"/>
+      <c r="H112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3" t="s">
+      <c r="D113" s="1"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G112" s="6"/>
-    </row>
-    <row r="113" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B114" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="3"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
@@ -11814,26 +11889,23 @@
         <v>216</v>
       </c>
       <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>224</v>
+      <c r="E115" s="7"/>
+      <c r="F115" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G115" s="8"/>
+      <c r="H115" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D116" s="6"/>
+      <c r="B116" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D116" s="7"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
         <v>215</v>
@@ -11849,13 +11921,10 @@
         <v>222</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
         <v>202</v>
       </c>
@@ -11867,21 +11936,12 @@
       <c r="F117" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G117" s="9"/>
-      <c r="H117" s="4" t="s">
+      <c r="G117" s="6"/>
+      <c r="H117" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I117" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>227</v>
+      <c r="I117" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="2:12" ht="90" x14ac:dyDescent="0.25">
@@ -11910,7 +11970,7 @@
         <v>225</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="2:12" ht="90" x14ac:dyDescent="0.25">
@@ -11936,7 +11996,10 @@
         <v>222</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="2:12" ht="90" x14ac:dyDescent="0.25">
@@ -11962,10 +12025,13 @@
         <v>222</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
         <v>202</v>
       </c>
@@ -11973,6 +12039,58 @@
         <v>216</v>
       </c>
       <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G121" s="9"/>
+      <c r="H121" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="H122" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D123" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="380">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -7675,17 +7675,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L96" sqref="A96:L96"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1"/>
     <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="34" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="34" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" style="3" customWidth="1"/>
     <col min="9" max="10" width="17" style="3"/>
     <col min="11" max="11" width="21" style="3" bestFit="1" customWidth="1"/>
@@ -8967,7 +8967,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>174</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>176</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>179</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>181</v>
       </c>
@@ -10610,7 +10610,15 @@
         <v>374</v>
       </c>
       <c r="L74" s="1"/>
-      <c r="AB74" s="11"/>
+      <c r="AA74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB74" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="75" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -11105,6 +11113,15 @@
       <c r="L85" s="1" t="s">
         <v>378</v>
       </c>
+      <c r="AA85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="86" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -11567,10 +11584,10 @@
         <v>376</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC95" s="1" t="s">
         <v>370</v>
@@ -11612,6 +11629,15 @@
       </c>
       <c r="L96" s="1" t="s">
         <v>328</v>
+      </c>
+      <c r="AA96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC96" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UFSprint17\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="BankDataScenarioPersonal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204" uniqueCount="421">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -1191,6 +1191,129 @@
   </si>
   <si>
     <t>ScnC-090</t>
+  </si>
+  <si>
+    <t>ScnP-056</t>
+  </si>
+  <si>
+    <t>ScnP-057</t>
+  </si>
+  <si>
+    <t>ScnP-058</t>
+  </si>
+  <si>
+    <t>ScnP-059</t>
+  </si>
+  <si>
+    <t>ScnP-060</t>
+  </si>
+  <si>
+    <t>ScnP-061</t>
+  </si>
+  <si>
+    <t>ScnP-062</t>
+  </si>
+  <si>
+    <t>ScnP-063</t>
+  </si>
+  <si>
+    <t>ScnP-064</t>
+  </si>
+  <si>
+    <t>ScnP-065</t>
+  </si>
+  <si>
+    <t>ScnP-066</t>
+  </si>
+  <si>
+    <t>ScnP-067</t>
+  </si>
+  <si>
+    <t>ScnP-068</t>
+  </si>
+  <si>
+    <t>ScnP-069</t>
+  </si>
+  <si>
+    <t>ScnP-070</t>
+  </si>
+  <si>
+    <t>ScnP-071</t>
+  </si>
+  <si>
+    <t>ScnP-072</t>
+  </si>
+  <si>
+    <t>ScnP-073</t>
+  </si>
+  <si>
+    <t>ScnP-074</t>
+  </si>
+  <si>
+    <t>ScnP-075</t>
+  </si>
+  <si>
+    <t>ScnP-076</t>
+  </si>
+  <si>
+    <t>ScnP-077</t>
+  </si>
+  <si>
+    <t>ScnP-078</t>
+  </si>
+  <si>
+    <t>ScnP-079</t>
+  </si>
+  <si>
+    <t>ScnP-080</t>
+  </si>
+  <si>
+    <t>ScnP-081</t>
+  </si>
+  <si>
+    <t>ScnP-082</t>
+  </si>
+  <si>
+    <t>ScnP-083</t>
+  </si>
+  <si>
+    <t>ScnP-084</t>
+  </si>
+  <si>
+    <t>ScnP-085</t>
+  </si>
+  <si>
+    <t>ScnP-086</t>
+  </si>
+  <si>
+    <t>ScnP-087</t>
+  </si>
+  <si>
+    <t>ScnP-088</t>
+  </si>
+  <si>
+    <t>ScnP-089</t>
+  </si>
+  <si>
+    <t>ScnP-090</t>
+  </si>
+  <si>
+    <t>ScnP-091</t>
+  </si>
+  <si>
+    <t>ScnP-092</t>
+  </si>
+  <si>
+    <t>ScnP-093</t>
+  </si>
+  <si>
+    <t>ScnP-094</t>
+  </si>
+  <si>
+    <t>ScnP-095</t>
+  </si>
+  <si>
+    <t>ScnP-096</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1414,7 +1537,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1423,10 +1546,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1435,10 +1558,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1724,10 +1850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB80"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N59" sqref="A55:N59"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1868,7 @@
     <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -6197,7 +6324,7 @@
       <c r="C55" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="25" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -6206,67 +6333,67 @@
       <c r="F55" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="22" t="s">
+      <c r="G55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="31" t="s">
         <v>31</v>
       </c>
       <c r="Z55" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="25" t="s">
+      <c r="AA55" s="29" t="s">
         <v>31</v>
       </c>
       <c r="AB55" s="23" t="s">
@@ -6277,32 +6404,32 @@
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
-      <c r="D56" s="30"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
       <c r="F56" s="24"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
       <c r="Z56" s="24"/>
-      <c r="AA56" s="26"/>
+      <c r="AA56" s="30"/>
       <c r="AB56" s="24"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
@@ -6563,1086 +6690,4589 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="AA60" s="11"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="AA61" s="11"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="AA62" s="11"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-    </row>
-    <row r="68" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="60" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="165" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA62" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA66" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA72" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA73" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA74" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA76" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA77" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA81" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA96" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="13"/>
+      <c r="AA101" s="11"/>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13"/>
+      <c r="AA102" s="11"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13"/>
+      <c r="AA103" s="11"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="13"/>
+      <c r="AA104" s="11"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA68" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA110" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AB68" s="1" t="s">
+      <c r="AB110" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="225" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="112" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z70" s="1" t="s">
+      <c r="F112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z112" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AA70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB70" s="1" t="s">
+      <c r="AA112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB112" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="113" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA71" s="1" t="s">
+      <c r="D113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA113" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB71" s="1" t="s">
+      <c r="AB113" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="114" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA72" s="1" t="s">
+      <c r="H114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA114" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AB72" s="1" t="s">
+      <c r="AB114" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="115" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA73" s="1" t="s">
+      <c r="H115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA115" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AB73" s="1" t="s">
+      <c r="AB115" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="116" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA74" s="1" t="s">
+      <c r="I116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB74" s="1" t="s">
+      <c r="AB116" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="135" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="117" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I117" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA75" s="1" t="s">
+      <c r="J117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA117" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AB75" s="1" t="s">
+      <c r="AB117" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="118" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I118" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA76" s="1" t="s">
+      <c r="J118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA118" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AB76" s="1" t="s">
+      <c r="AB118" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="135" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="119" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I119" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA77" s="1" t="s">
+      <c r="J119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB77" s="1" t="s">
+      <c r="AB119" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="135" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="120" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I120" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J120" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA78" s="1" t="s">
+      <c r="K120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB78" s="1" t="s">
+      <c r="AB120" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="135" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="121" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I121" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J121" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA79" s="1" t="s">
+      <c r="K121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA121" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB79" s="1" t="s">
+      <c r="AB121" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="135" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="122" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J122" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA80" s="1" t="s">
+      <c r="K122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA122" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AB122" s="1" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -7659,12 +11289,42 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7673,10 +11333,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView topLeftCell="A71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7704,7 +11365,7 @@
       <c r="C1" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28"/>
       <c r="F1" s="27" t="s">
         <v>3</v>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="429">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -1314,6 +1314,32 @@
   </si>
   <si>
     <t>ScnP-096</t>
+  </si>
+  <si>
+    <t>ScnP-070a</t>
+  </si>
+  <si>
+    <t>Input DP Percentage 0</t>
+  </si>
+  <si>
+    <t>ScnP-080a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Asset Data Used dengan chasis no, engine no, dan license plate no sama dengan app ScnP-080 </t>
+  </si>
+  <si>
+    <t>ScnP-078a</t>
+  </si>
+  <si>
+    <t>Input Asset Data Used tanpa input Chasis no, engine no, dan license plate no</t>
+  </si>
+  <si>
+    <t>Input Application Data Tenor 24 Monthly
+Regular Fixed</t>
+  </si>
+  <si>
+    <t>Input Application Data Tenor 36 Monthly
+Regular Fixed</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1540,16 +1566,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1558,13 +1590,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1851,10 +1880,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB122"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,7 +1896,7 @@
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
@@ -1880,19 +1909,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1964,9 +1993,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4391,122 +4420,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="25" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="23" t="s">
+      <c r="D32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="23" t="s">
+      <c r="AA32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6315,122 +6344,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="31" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="23" t="s">
+      <c r="G55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="23" t="s">
+      <c r="AA55" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="25" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="24"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="26"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -7981,13 +8010,13 @@
       </c>
     </row>
     <row r="75" spans="1:28" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="B75" s="22" t="s">
+      <c r="A75" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -8006,69 +8035,13 @@
         <v>299</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="AA75" s="11"/>
+    </row>
+    <row r="76" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>61</v>
@@ -8092,7 +8065,7 @@
         <v>299</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>31</v>
@@ -8145,16 +8118,16 @@
       <c r="Z76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA76" s="11" t="s">
-        <v>37</v>
+      <c r="AA76" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB76" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="225" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>61</v>
@@ -8178,7 +8151,7 @@
         <v>299</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>31</v>
@@ -8240,7 +8213,7 @@
     </row>
     <row r="78" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>61</v>
@@ -8264,7 +8237,7 @@
         <v>299</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>31</v>
@@ -8324,9 +8297,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>61</v>
@@ -8350,7 +8323,7 @@
         <v>299</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>31</v>
@@ -8403,16 +8376,16 @@
       <c r="Z79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA79" s="1" t="s">
-        <v>43</v>
+      <c r="AA79" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AB79" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B80" s="22" t="s">
         <v>61</v>
@@ -8436,7 +8409,7 @@
         <v>299</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>31</v>
@@ -8498,7 +8471,7 @@
     </row>
     <row r="81" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>61</v>
@@ -8522,7 +8495,7 @@
         <v>299</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>31</v>
@@ -8575,16 +8548,16 @@
       <c r="Z81" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA81" s="11" t="s">
-        <v>37</v>
+      <c r="AA81" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>61</v>
@@ -8608,7 +8581,7 @@
         <v>299</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>31</v>
@@ -8661,8 +8634,8 @@
       <c r="Z82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA82" s="1" t="s">
-        <v>40</v>
+      <c r="AA82" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AB82" s="1" t="s">
         <v>369</v>
@@ -8670,7 +8643,7 @@
     </row>
     <row r="83" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B83" s="22" t="s">
         <v>61</v>
@@ -8694,7 +8667,7 @@
         <v>299</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>31</v>
@@ -8745,23 +8718,23 @@
         <v>31</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="B84" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D84" s="13" t="s">
@@ -8780,69 +8753,12 @@
         <v>299</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z84" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB84" s="1" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B85" s="22" t="s">
         <v>61</v>
@@ -8866,7 +8782,7 @@
         <v>299</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>31</v>
@@ -8928,7 +8844,7 @@
     </row>
     <row r="86" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B86" s="22" t="s">
         <v>61</v>
@@ -8952,10 +8868,10 @@
         <v>299</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>31</v>
@@ -9012,14 +8928,14 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="B87" s="22" t="s">
+    <row r="87" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -9038,69 +8954,12 @@
         <v>299</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB87" s="1" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>61</v>
@@ -9124,10 +8983,10 @@
         <v>299</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>31</v>
@@ -9175,18 +9034,18 @@
         <v>31</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AA88" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>61</v>
@@ -9213,7 +9072,7 @@
         <v>311</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>31</v>
@@ -9261,18 +9120,18 @@
         <v>31</v>
       </c>
       <c r="Z89" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B90" s="22" t="s">
         <v>61</v>
@@ -9299,7 +9158,7 @@
         <v>311</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>31</v>
@@ -9347,18 +9206,18 @@
         <v>31</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB90" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B91" s="22" t="s">
         <v>61</v>
@@ -9385,7 +9244,7 @@
         <v>311</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>31</v>
@@ -9436,15 +9295,15 @@
         <v>32</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AB91" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B92" s="22" t="s">
         <v>61</v>
@@ -9471,7 +9330,7 @@
         <v>311</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>31</v>
@@ -9528,9 +9387,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B93" s="22" t="s">
         <v>61</v>
@@ -9557,7 +9416,7 @@
         <v>311</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>31</v>
@@ -9605,18 +9464,18 @@
         <v>31</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AA93" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AB93" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B94" s="22" t="s">
         <v>61</v>
@@ -9643,7 +9502,7 @@
         <v>311</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>31</v>
@@ -9694,7 +9553,7 @@
         <v>32</v>
       </c>
       <c r="AA94" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AB94" s="1" t="s">
         <v>370</v>
@@ -9702,7 +9561,7 @@
     </row>
     <row r="95" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B95" s="22" t="s">
         <v>61</v>
@@ -9729,7 +9588,7 @@
         <v>311</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>31</v>
@@ -9777,18 +9636,18 @@
         <v>31</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AB95" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B96" s="22" t="s">
         <v>61</v>
@@ -9815,7 +9674,7 @@
         <v>311</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>31</v>
@@ -9865,16 +9724,16 @@
       <c r="Z96" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA96" s="11" t="s">
-        <v>37</v>
+      <c r="AA96" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB96" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>61</v>
@@ -9901,7 +9760,7 @@
         <v>311</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>31</v>
@@ -9952,15 +9811,15 @@
         <v>32</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AB97" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="150" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>61</v>
@@ -9981,13 +9840,13 @@
         <v>268</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>311</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>31</v>
@@ -10035,18 +9894,18 @@
         <v>31</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AB98" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B99" s="22" t="s">
         <v>61</v>
@@ -10073,7 +9932,7 @@
         <v>311</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>31</v>
@@ -10123,8 +9982,8 @@
       <c r="Z99" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AA99" s="1" t="s">
-        <v>40</v>
+      <c r="AA99" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AB99" s="1" t="s">
         <v>370</v>
@@ -10132,7 +9991,7 @@
     </row>
     <row r="100" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B100" s="22" t="s">
         <v>61</v>
@@ -10159,7 +10018,7 @@
         <v>311</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>31</v>
@@ -10207,57 +10066,300 @@
         <v>31</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB100" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="13"/>
-      <c r="AA101" s="11"/>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="AA102" s="11"/>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
-      <c r="AA103" s="11"/>
+    <row r="101" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
       <c r="D104" s="13"/>
       <c r="AA104" s="11"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13"/>
+      <c r="AA105" s="11"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13"/>
+      <c r="AA106" s="11"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="13"/>
+      <c r="AA107" s="11"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
@@ -10269,181 +10371,30 @@
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z110" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB110" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="225" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA112" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB112" s="1" t="s">
-        <v>95</v>
-      </c>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
     </row>
     <row r="113" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>31</v>
@@ -10512,98 +10463,15 @@
         <v>32</v>
       </c>
       <c r="AA113" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AB113" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z114" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB114" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="225" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>92</v>
@@ -10615,10 +10483,10 @@
         <v>94</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>31</v>
@@ -10675,36 +10543,36 @@
         <v>31</v>
       </c>
       <c r="Z115" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AA115" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="AB115" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>31</v>
@@ -10761,15 +10629,15 @@
         <v>32</v>
       </c>
       <c r="AA116" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AB116" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>92</v>
@@ -10784,13 +10652,13 @@
         <v>98</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>31</v>
@@ -10844,15 +10712,15 @@
         <v>32</v>
       </c>
       <c r="AA117" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AB117" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>92</v>
@@ -10867,13 +10735,13 @@
         <v>98</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>31</v>
@@ -10930,12 +10798,12 @@
         <v>102</v>
       </c>
       <c r="AB118" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>92</v>
@@ -10953,10 +10821,10 @@
         <v>103</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>31</v>
@@ -11010,15 +10878,15 @@
         <v>32</v>
       </c>
       <c r="AA119" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AB119" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>92</v>
@@ -11039,10 +10907,10 @@
         <v>106</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>31</v>
@@ -11093,15 +10961,15 @@
         <v>32</v>
       </c>
       <c r="AA120" s="1" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="AB120" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>92</v>
@@ -11122,10 +10990,10 @@
         <v>106</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>31</v>
@@ -11176,15 +11044,15 @@
         <v>32</v>
       </c>
       <c r="AA121" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AB121" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>92</v>
@@ -11205,74 +11073,353 @@
         <v>106</v>
       </c>
       <c r="I122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB122" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J123" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB123" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB124" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA122" s="1" t="s">
+      <c r="K125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB122" s="1" t="s">
+      <c r="AB125" s="1" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -11289,42 +11436,12 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11336,7 +11453,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH123"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -11356,21 +11473,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11439,8 +11556,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UFSprint17\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="435">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -1340,6 +1340,24 @@
   <si>
     <t>Input Application Data Tenor 36 Monthly
 Regular Fixed</t>
+  </si>
+  <si>
+    <t>Input Percentage o</t>
+  </si>
+  <si>
+    <t>ScnC-066a</t>
+  </si>
+  <si>
+    <t>ScnC-074a</t>
+  </si>
+  <si>
+    <t>Input Asset Data Used chasis no, engine no, dan license plate no sama dengan app ScnC-075</t>
+  </si>
+  <si>
+    <t>ScnC-075a</t>
+  </si>
+  <si>
+    <t>Input Asset Data Used Tidak Input chasis no, engine no, dan license plate no</t>
   </si>
 </sst>
 </file>
@@ -1569,13 +1587,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1584,16 +1611,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1882,8 +1900,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,19 +1927,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1993,9 +2011,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4420,122 +4438,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="25" t="s">
+      <c r="D32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="25" t="s">
+      <c r="AA32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6344,122 +6362,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="26" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="25" t="s">
+      <c r="G55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="25" t="s">
+      <c r="AA55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="24" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="32"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="25"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -8928,7 +8946,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>423</v>
       </c>
@@ -11384,42 +11402,12 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -11436,12 +11424,42 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11451,10 +11469,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH123"/>
+  <dimension ref="A1:AH126"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="C78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11473,21 +11491,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="33"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11556,8 +11574,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -14160,7 +14178,7 @@
         <v>299</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>305</v>
+        <v>429</v>
       </c>
       <c r="L69" s="1"/>
       <c r="AA69" s="1" t="s">
@@ -14220,7 +14238,7 @@
     </row>
     <row r="71" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>127</v>
@@ -14250,22 +14268,14 @@
         <v>299</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L71" s="1"/>
-      <c r="AA71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB71" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC71" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="AB71" s="11"/>
+    </row>
+    <row r="72" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>127</v>
@@ -14295,22 +14305,22 @@
         <v>299</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="L72" s="1"/>
       <c r="AA72" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB72" s="11" t="s">
-        <v>37</v>
+      <c r="AB72" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AC72" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>127</v>
@@ -14340,7 +14350,7 @@
         <v>299</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L73" s="1"/>
       <c r="AA73" s="1" t="s">
@@ -14355,7 +14365,7 @@
     </row>
     <row r="74" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>127</v>
@@ -14385,7 +14395,7 @@
         <v>299</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L74" s="1"/>
       <c r="AA74" s="1" t="s">
@@ -14400,7 +14410,7 @@
     </row>
     <row r="75" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>127</v>
@@ -14430,14 +14440,14 @@
         <v>299</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="L75" s="1"/>
       <c r="AA75" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB75" s="1" t="s">
-        <v>43</v>
+      <c r="AB75" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AC75" s="1" t="s">
         <v>368</v>
@@ -14445,7 +14455,7 @@
     </row>
     <row r="76" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>127</v>
@@ -14475,7 +14485,7 @@
         <v>299</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L76" s="1"/>
       <c r="AA76" s="1" t="s">
@@ -14490,7 +14500,7 @@
     </row>
     <row r="77" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>127</v>
@@ -14520,22 +14530,22 @@
         <v>299</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L77" s="1"/>
       <c r="AA77" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB77" s="11" t="s">
-        <v>37</v>
+      <c r="AB77" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>127</v>
@@ -14565,14 +14575,14 @@
         <v>299</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L78" s="1"/>
       <c r="AA78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB78" s="1" t="s">
-        <v>40</v>
+      <c r="AB78" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AC78" s="1" t="s">
         <v>369</v>
@@ -14580,7 +14590,7 @@
     </row>
     <row r="79" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>127</v>
@@ -14610,22 +14620,22 @@
         <v>299</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L79" s="1"/>
       <c r="AA79" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>127</v>
@@ -14655,7 +14665,7 @@
         <v>299</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L80" s="1"/>
       <c r="AA80" s="1" t="s">
@@ -14670,7 +14680,7 @@
     </row>
     <row r="81" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>127</v>
@@ -14700,22 +14710,13 @@
         <v>299</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>312</v>
+        <v>434</v>
       </c>
       <c r="L81" s="1"/>
-      <c r="AA81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC81" s="1" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="82" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>127</v>
@@ -14745,11 +14746,9 @@
         <v>299</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>314</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="L82" s="1"/>
       <c r="AA82" s="1" t="s">
         <v>57</v>
       </c>
@@ -14762,7 +14761,7 @@
     </row>
     <row r="83" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>127</v>
@@ -14792,24 +14791,13 @@
         <v>299</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC83" s="1" t="s">
-        <v>370</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>127</v>
@@ -14839,24 +14827,22 @@
         <v>299</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="L84" s="1"/>
       <c r="AA84" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>127</v>
@@ -14889,21 +14875,21 @@
         <v>311</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>127</v>
@@ -14936,21 +14922,21 @@
         <v>311</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC86" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>127</v>
@@ -14983,21 +14969,21 @@
         <v>311</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA87" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AC87" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>127</v>
@@ -15030,7 +15016,7 @@
         <v>311</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="AA88" s="1" t="s">
         <v>32</v>
@@ -15042,9 +15028,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>127</v>
@@ -15077,21 +15063,21 @@
         <v>311</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AA89" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AC89" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>127</v>
@@ -15124,21 +15110,21 @@
         <v>311</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AA90" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AC90" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>127</v>
@@ -15171,21 +15157,21 @@
         <v>311</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AC91" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>127</v>
@@ -15218,21 +15204,21 @@
         <v>311</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AA92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB92" s="11" t="s">
-        <v>37</v>
+      <c r="AB92" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AC92" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>127</v>
@@ -15265,21 +15251,21 @@
         <v>311</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA93" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AC93" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>127</v>
@@ -15306,19 +15292,19 @@
         <v>268</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>299</v>
+        <v>427</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>311</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AA94" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC94" s="1" t="s">
         <v>370</v>
@@ -15326,7 +15312,7 @@
     </row>
     <row r="95" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>127</v>
@@ -15359,21 +15345,21 @@
         <v>311</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="AA95" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB95" s="1" t="s">
-        <v>40</v>
+      <c r="AB95" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="AC95" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>127</v>
@@ -15406,58 +15392,160 @@
         <v>311</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC96" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC97" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC98" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC99" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -15470,7 +15558,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -15483,7 +15571,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -15496,7 +15584,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -15509,7 +15597,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -15522,7 +15610,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -15535,7 +15623,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -15548,12 +15636,12 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -15561,12 +15649,12 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -15574,77 +15662,56 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>203</v>
-      </c>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D111" s="3"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
@@ -15657,98 +15724,95 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G114" s="6"/>
-    </row>
-    <row r="115" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B116" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B117" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="3"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
         <v>215</v>
       </c>
       <c r="G117" s="6"/>
-      <c r="H117" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
         <v>202</v>
       </c>
@@ -15756,35 +15820,23 @@
         <v>216</v>
       </c>
       <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G118" s="9"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G118" s="8"/>
       <c r="H118" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L118" s="3" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D119" s="6"/>
+      <c r="B119" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" s="7"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
         <v>215</v>
@@ -15800,13 +15852,10 @@
         <v>222</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>202</v>
       </c>
@@ -15818,21 +15867,12 @@
       <c r="F120" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="4" t="s">
+      <c r="G120" s="6"/>
+      <c r="H120" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I120" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>228</v>
+      <c r="I120" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="2:12" ht="90" x14ac:dyDescent="0.25">
@@ -15858,7 +15898,10 @@
         <v>222</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="90" x14ac:dyDescent="0.25">
@@ -15884,10 +15927,13 @@
         <v>222</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="123" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
         <v>202</v>
       </c>
@@ -15895,6 +15941,87 @@
         <v>216</v>
       </c>
       <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G123" s="9"/>
+      <c r="H123" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G124" s="9"/>
+      <c r="H124" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G125" s="9"/>
+      <c r="H125" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BankDataScenarioPersonal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="435">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -1587,16 +1587,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1605,13 +1608,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1900,7 +1900,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
@@ -1927,19 +1927,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2011,9 +2011,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4438,122 +4438,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="24" t="s">
+      <c r="D32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="24" t="s">
+      <c r="AA32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6362,122 +6362,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="31" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="24" t="s">
+      <c r="G55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="24" t="s">
+      <c r="AA55" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="25" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="26"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -9319,7 +9319,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>409</v>
       </c>
@@ -11402,12 +11402,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -11424,42 +11454,12 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11471,8 +11471,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH126"/>
   <sheetViews>
-    <sheetView topLeftCell="C78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="K70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC83" sqref="AC83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11485,27 +11485,28 @@
     <col min="8" max="8" width="26.85546875" style="3" customWidth="1"/>
     <col min="9" max="10" width="17" style="3"/>
     <col min="11" max="11" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="26" width="17" style="3" customWidth="1"/>
+    <col min="12" max="14" width="17" style="3" customWidth="1"/>
+    <col min="15" max="26" width="17" style="3" hidden="1" customWidth="1"/>
     <col min="27" max="34" width="17" style="1"/>
     <col min="35" max="16384" width="17" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="33"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11574,8 +11575,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
@@ -14271,7 +14272,15 @@
         <v>305</v>
       </c>
       <c r="L71" s="1"/>
-      <c r="AB71" s="11"/>
+      <c r="AA71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="72" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -14713,6 +14722,15 @@
         <v>434</v>
       </c>
       <c r="L81" s="1"/>
+      <c r="AA81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="82" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -14794,6 +14812,15 @@
         <v>432</v>
       </c>
       <c r="L83" s="1"/>
+      <c r="AA83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="84" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UFSprint17\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="BankDataScenarioPersonal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="435">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -1587,13 +1587,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,16 +1611,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1900,8 +1900,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X76" sqref="X76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,19 +1927,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2011,9 +2011,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4438,122 +4438,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="25" t="s">
+      <c r="D32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="25" t="s">
+      <c r="AA32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6362,122 +6362,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="26" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="25" t="s">
+      <c r="G55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="25" t="s">
+      <c r="AA55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="24" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="32"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="25"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -8055,7 +8055,63 @@
       <c r="I75" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AA75" s="11"/>
+      <c r="J75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA75" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="76" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -8773,6 +8829,63 @@
       <c r="I84" s="1" t="s">
         <v>426</v>
       </c>
+      <c r="J84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="85" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
@@ -8973,6 +9086,63 @@
       </c>
       <c r="I87" s="1" t="s">
         <v>424</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="90" x14ac:dyDescent="0.25">
@@ -11402,42 +11572,12 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -11454,12 +11594,42 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11471,8 +11641,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC83" sqref="AC83"/>
+    <sheetView topLeftCell="G79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA83" sqref="AA83:AC83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11492,21 +11662,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="33"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11575,8 +11745,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="435">
   <si>
     <t>Kode Scenario</t>
   </si>
@@ -1587,16 +1587,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1605,13 +1608,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1900,8 +1900,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X76" sqref="X76"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,19 +1927,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2011,9 +2011,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2537,12 +2537,90 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>272</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
@@ -4438,122 +4516,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="24" t="s">
+      <c r="D32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="24" t="s">
+      <c r="AA32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6362,122 +6440,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="31" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="24" t="s">
+      <c r="G55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="24" t="s">
+      <c r="AA55" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="25" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="26"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -8199,7 +8277,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>396</v>
       </c>
@@ -8457,7 +8535,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="120" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>399</v>
       </c>
@@ -9317,7 +9395,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="105" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>407</v>
       </c>
@@ -11572,12 +11650,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -11594,42 +11702,12 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11662,21 +11740,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="33"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11745,8 +11823,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UFSprint17\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BankDataScenarioPersonal" sheetId="1" r:id="rId1"/>
@@ -1587,13 +1587,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,16 +1611,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1900,7 +1900,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1927,19 +1927,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2011,9 +2011,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4516,122 +4516,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="25" t="s">
+      <c r="D32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="25" t="s">
+      <c r="AA32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6440,122 +6440,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="26" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="25" t="s">
+      <c r="G55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="25" t="s">
+      <c r="AA55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="24" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="32"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="25"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11650,42 +11650,12 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -11702,12 +11672,42 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11719,8 +11719,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH126"/>
   <sheetViews>
-    <sheetView topLeftCell="G79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA83" sqref="AA83:AC83"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11740,21 +11741,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="33"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11823,8 +11824,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>

--- a/Excel/KombinasiData.xlsx
+++ b/Excel/KombinasiData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-BNI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1587,16 +1587,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1605,13 +1608,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1927,19 +1927,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2011,9 +2011,9 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4516,122 +4516,122 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="24" t="s">
+      <c r="D32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="24" t="s">
+      <c r="AA32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
     </row>
     <row r="34" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6440,122 +6440,122 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="31" t="s">
         <v>282</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="24" t="s">
+      <c r="G55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="24" t="s">
+      <c r="AA55" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="25" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="26"/>
     </row>
     <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11650,12 +11650,42 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
     <mergeCell ref="Z55:Z56"/>
     <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AB55:AB56"/>
@@ -11672,42 +11702,12 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="R55:R56"/>
     <mergeCell ref="S55:S56"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11741,21 +11741,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="33"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11824,8 +11824,8 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
